--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>3/9,10/2023</t>
+  </si>
+  <si>
+    <t>3/30,31/2023</t>
   </si>
 </sst>
 </file>
@@ -634,17 +640,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -654,6 +657,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,10 +1549,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,14 +1582,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1594,16 +1600,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1616,14 +1622,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1649,18 +1655,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1707,7 +1713,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1717,7 +1723,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3141,15 +3147,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
+      <c r="A79" s="24">
+        <v>44986</v>
+      </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="12"/>
       <c r="E79" s="9"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
@@ -3734,17 +3744,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3779,10 +3789,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,14 +3822,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3830,16 +3840,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3852,14 +3862,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3885,18 +3895,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3943,7 +3953,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.09</v>
+        <v>45.09</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3953,7 +3963,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.950000000000003</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4512,8 +4522,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
       <c r="E35" s="9"/>
@@ -4522,16 +4536,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14" t="str">
@@ -4541,7 +4563,9 @@
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
@@ -5089,17 +5113,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDF3201-9183-4C28-84A1-467A19FD473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -27,18 +28,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -281,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -640,14 +633,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,9 +653,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,25 +1181,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1218,25 +1211,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1543,34 +1536,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80:A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1582,16 +1575,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1600,18 +1593,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1622,16 +1615,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1639,7 +1632,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1652,24 +1645,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1728,7 +1721,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1746,7 +1739,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1766,7 +1759,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1786,7 +1779,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1806,7 +1799,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1826,7 +1819,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1846,7 +1839,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1866,7 +1859,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1886,7 +1879,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1906,7 +1899,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1926,7 +1919,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1946,7 +1939,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -1966,7 +1959,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -1990,7 +1983,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2008,7 +2001,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2028,7 +2021,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2048,7 +2041,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2068,7 +2061,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2088,7 +2081,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2108,7 +2101,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2128,7 +2121,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2148,7 +2141,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2168,7 +2161,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2188,7 +2181,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2208,7 +2201,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2228,7 +2221,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2252,7 +2245,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2270,7 +2263,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2290,7 +2283,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2310,7 +2303,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2330,7 +2323,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2350,7 +2343,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2370,7 +2363,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2390,7 +2383,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2410,7 +2403,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2430,7 +2423,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2476,7 +2469,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2496,7 +2489,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2542,7 +2535,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2560,7 +2553,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2580,7 +2573,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2600,7 +2593,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2620,7 +2613,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2646,7 +2639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2666,7 +2659,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2686,7 +2679,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2706,7 +2699,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2726,7 +2719,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2746,7 +2739,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2766,7 +2759,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2786,7 +2779,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2812,7 +2805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2834,7 +2827,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2854,7 +2847,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2875,7 +2868,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2896,7 +2889,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2917,7 +2910,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2938,7 +2931,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2959,7 +2952,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2980,7 +2973,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3001,7 +2994,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3021,7 +3014,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3042,7 +3035,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3062,7 +3055,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3088,7 +3081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3106,7 +3099,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3126,7 +3119,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3146,7 +3139,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3166,8 +3159,10 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>45017</v>
+      </c>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
       <c r="D80" s="12"/>
@@ -3182,8 +3177,10 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>45047</v>
+      </c>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
       <c r="D81" s="12"/>
@@ -3198,8 +3195,10 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="24">
+        <v>45078</v>
+      </c>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
       <c r="D82" s="12"/>
@@ -3214,8 +3213,10 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="24">
+        <v>45108</v>
+      </c>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
@@ -3230,8 +3231,10 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="24">
+        <v>45139</v>
+      </c>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
@@ -3246,8 +3249,10 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="24">
+        <v>45170</v>
+      </c>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
       <c r="D85" s="12"/>
@@ -3262,8 +3267,10 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="24">
+        <v>45200</v>
+      </c>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
       <c r="D86" s="12"/>
@@ -3278,8 +3285,10 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="24">
+        <v>45231</v>
+      </c>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
       <c r="D87" s="12"/>
@@ -3294,8 +3303,10 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="24">
+        <v>45261</v>
+      </c>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
       <c r="D88" s="12"/>
@@ -3310,8 +3321,10 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="24">
+        <v>45292</v>
+      </c>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
       <c r="D89" s="12"/>
@@ -3326,8 +3339,10 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="24">
+        <v>45323</v>
+      </c>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
       <c r="D90" s="12"/>
@@ -3342,8 +3357,10 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="24">
+        <v>45352</v>
+      </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
       <c r="D91" s="12"/>
@@ -3358,8 +3375,10 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="24">
+        <v>45383</v>
+      </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
       <c r="D92" s="12"/>
@@ -3374,7 +3393,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3390,7 +3409,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3406,7 +3425,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3422,7 +3441,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3438,7 +3457,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3454,7 +3473,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3470,7 +3489,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3486,7 +3505,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3502,7 +3521,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3518,7 +3537,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3534,7 +3553,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3550,7 +3569,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3566,7 +3585,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3582,7 +3601,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3598,7 +3617,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3614,7 +3633,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3630,7 +3649,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3646,7 +3665,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3662,7 +3681,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3678,7 +3697,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3694,7 +3713,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3710,7 +3729,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3726,7 +3745,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3744,23 +3763,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3783,34 +3802,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3822,16 +3841,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3840,18 +3859,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3862,16 +3881,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3879,7 +3898,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3892,24 +3911,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3944,7 +3963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3968,7 +3987,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -3986,7 +4005,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4032,7 +4051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4054,7 +4073,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4072,7 +4091,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4094,7 +4113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4118,7 +4137,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4140,7 +4159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4164,7 +4183,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4186,7 +4205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4206,7 +4225,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4224,7 +4243,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4248,7 +4267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4272,7 +4291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4296,7 +4315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4337,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4342,7 +4361,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4366,7 +4385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4388,7 +4407,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4411,7 +4430,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4433,7 +4452,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4451,7 +4470,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4475,7 +4494,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4499,7 +4518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4521,7 +4540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4545,7 +4564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4567,7 +4586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
@@ -4583,7 +4602,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -4599,7 +4618,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -4615,7 +4634,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -4631,7 +4650,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -4647,7 +4666,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -4663,7 +4682,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -4679,7 +4698,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4695,7 +4714,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4711,7 +4730,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4727,7 +4746,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -4743,7 +4762,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -4759,7 +4778,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -4775,7 +4794,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4791,7 +4810,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4807,7 +4826,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4823,7 +4842,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4839,7 +4858,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4855,7 +4874,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4871,7 +4890,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4887,7 +4906,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4903,7 +4922,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4919,7 +4938,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4935,7 +4954,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4951,7 +4970,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4967,7 +4986,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4983,7 +5002,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4999,7 +5018,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5015,7 +5034,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5031,7 +5050,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5047,7 +5066,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5063,7 +5082,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5079,7 +5098,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5095,7 +5114,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5113,23 +5132,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5152,28 +5171,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5186,7 +5205,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5239,17 +5258,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5270,7 +5289,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5297,7 +5316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5323,7 +5342,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5349,7 +5368,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5375,7 +5394,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5401,7 +5420,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5427,7 +5446,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5453,7 +5472,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5479,7 +5498,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5499,7 +5518,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5519,7 +5538,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5539,7 +5558,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5560,7 +5579,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5581,7 +5600,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5602,7 +5621,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5623,7 +5642,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5644,7 +5663,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5665,7 +5684,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5686,7 +5705,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5728,7 +5747,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5749,7 +5768,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5770,7 +5789,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5791,7 +5810,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5812,7 +5831,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5833,7 +5852,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -5854,7 +5873,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -5875,7 +5894,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -5917,7 +5936,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -5959,7 +5978,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -5968,7 +5987,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -5977,7 +5996,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -5986,7 +6005,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -5995,7 +6014,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6004,7 +6023,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6013,7 +6032,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6022,7 +6041,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6031,7 +6050,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6040,7 +6059,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6049,7 +6068,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6058,7 +6077,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6067,7 +6086,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6076,7 +6095,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6085,7 +6104,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6094,7 +6113,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6103,7 +6122,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6112,7 +6131,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6121,7 +6140,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6130,7 +6149,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6139,7 +6158,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6148,7 +6167,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6157,7 +6176,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6166,7 +6185,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6175,7 +6194,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6184,7 +6203,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6193,7 +6212,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6202,7 +6221,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6211,7 +6230,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6220,7 +6239,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDF3201-9183-4C28-84A1-467A19FD473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,12 +268,18 @@
   </si>
   <si>
     <t>3/30,31/2023</t>
+  </si>
+  <si>
+    <t>5/2-4/2023</t>
+  </si>
+  <si>
+    <t>5/8,9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -633,17 +638,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -653,6 +655,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,25 +1186,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1211,25 +1216,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1536,34 +1541,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:A92"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1575,16 +1580,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1593,18 +1598,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1615,16 +1620,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1632,7 +1637,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1645,24 +1650,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1706,7 +1711,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1716,12 +1721,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1739,7 +1744,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1759,7 +1764,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1779,7 +1784,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1799,7 +1804,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1819,7 +1824,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1839,7 +1844,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1859,7 +1864,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1879,7 +1884,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1899,7 +1904,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1939,7 +1944,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -1959,7 +1964,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -1983,7 +1988,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2001,7 +2006,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2021,7 +2026,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2041,7 +2046,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2061,7 +2066,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2101,7 +2106,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2121,7 +2126,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2141,7 +2146,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2161,7 +2166,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2181,7 +2186,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2201,7 +2206,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2221,7 +2226,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2245,7 +2250,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2263,7 +2268,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2283,7 +2288,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2303,7 +2308,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2323,7 +2328,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2343,7 +2348,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2363,7 +2368,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2383,7 +2388,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2403,7 +2408,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2423,7 +2428,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2469,7 +2474,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2489,7 +2494,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2535,7 +2540,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2553,7 +2558,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2573,7 +2578,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2593,7 +2598,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2613,7 +2618,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2639,7 +2644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2659,7 +2664,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2679,7 +2684,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2699,7 +2704,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2719,7 +2724,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2739,7 +2744,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2759,7 +2764,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2779,7 +2784,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +2832,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2847,7 +2852,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2868,7 +2873,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2889,7 +2894,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2910,7 +2915,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2931,7 +2936,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2952,7 +2957,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2973,7 +2978,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -2994,7 +2999,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3014,7 +3019,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3035,7 +3040,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3055,7 +3060,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3099,7 +3104,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3119,7 +3124,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3139,7 +3144,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3159,25 +3164,27 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="12"/>
       <c r="E80" s="9"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3195,7 +3202,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3213,7 +3220,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3249,7 +3256,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3267,7 +3274,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3285,7 +3292,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3303,7 +3310,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3321,7 +3328,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3339,7 +3346,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3357,7 +3364,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3393,7 +3400,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3409,7 +3416,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3425,7 +3432,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3441,7 +3448,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3457,7 +3464,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3473,7 +3480,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3489,7 +3496,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3505,7 +3512,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3521,7 +3528,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3537,7 +3544,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3553,7 +3560,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3569,7 +3576,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3585,7 +3592,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3601,7 +3608,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3617,7 +3624,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3633,7 +3640,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3649,7 +3656,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3665,7 +3672,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3681,7 +3688,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3697,7 +3704,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3713,7 +3720,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3729,7 +3736,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3745,7 +3752,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3763,23 +3770,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3802,34 +3809,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3841,16 +3848,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3859,18 +3866,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3881,16 +3888,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3898,7 +3905,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3911,24 +3918,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3982,12 +3989,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.950000000000003</v>
+        <v>31.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4005,7 +4012,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4051,7 +4058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4091,7 +4098,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4113,7 +4120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4159,7 +4166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4205,7 +4212,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4225,7 +4232,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4243,7 +4250,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4315,7 +4322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4337,7 +4344,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4407,7 +4414,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4430,7 +4437,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4452,7 +4459,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4470,7 +4477,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4494,7 +4501,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4518,7 +4525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4540,7 +4547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4564,7 +4571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4586,9 +4593,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
       <c r="E37" s="9"/>
@@ -4597,14 +4608,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12">
+        <v>3</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
       <c r="E38" s="9"/>
@@ -4613,12 +4630,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12">
+        <v>2</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -4634,7 +4655,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -4650,7 +4671,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -4666,7 +4687,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -4682,7 +4703,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -4698,7 +4719,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4714,7 +4735,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4730,7 +4751,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4746,7 +4767,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -4762,7 +4783,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -4778,7 +4799,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -4794,7 +4815,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4810,7 +4831,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4826,7 +4847,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4842,7 +4863,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4858,7 +4879,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4874,7 +4895,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4890,7 +4911,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4906,7 +4927,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4922,7 +4943,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4938,7 +4959,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4954,7 +4975,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4970,7 +4991,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4986,7 +5007,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5002,7 +5023,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5018,7 +5039,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5034,7 +5055,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5050,7 +5071,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5066,7 +5087,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5082,7 +5103,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5098,7 +5119,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5114,7 +5135,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5132,23 +5153,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5171,28 +5192,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5205,7 +5226,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5234,7 +5255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5258,17 +5279,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5289,7 +5310,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5316,7 +5337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5342,7 +5363,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5368,7 +5389,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5394,7 +5415,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5420,7 +5441,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5446,7 +5467,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5472,7 +5493,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5498,7 +5519,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5518,7 +5539,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5538,7 +5559,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5558,7 +5579,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5600,7 +5621,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5621,7 +5642,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5642,7 +5663,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5663,7 +5684,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5684,7 +5705,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5705,7 +5726,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5726,7 +5747,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5747,7 +5768,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5768,7 +5789,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5810,7 +5831,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5852,7 +5873,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -5873,7 +5894,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -5894,7 +5915,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -5915,7 +5936,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -5936,7 +5957,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -5978,7 +5999,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -5987,7 +6008,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -5996,7 +6017,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6005,7 +6026,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6014,7 +6035,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6023,7 +6044,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6032,7 +6053,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6041,7 +6062,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6050,7 +6071,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6059,7 +6080,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6068,7 +6089,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6077,7 +6098,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6086,7 +6107,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6095,7 +6116,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6104,7 +6125,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6113,7 +6134,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6122,7 +6143,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6131,7 +6152,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6140,7 +6161,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6149,7 +6170,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6158,7 +6179,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6167,7 +6188,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6176,7 +6197,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6185,7 +6206,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6194,7 +6215,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6203,7 +6224,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6212,7 +6233,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6221,7 +6242,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6230,7 +6251,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6239,7 +6260,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>5/8,9/2023</t>
+  </si>
+  <si>
+    <t>HOUSING</t>
+  </si>
+  <si>
+    <t>5/17-19/2023</t>
+  </si>
+  <si>
+    <t>05/31/2023, 06/1/2023</t>
+  </si>
+  <si>
+    <t>05/24-26/2023</t>
   </si>
 </sst>
 </file>
@@ -638,14 +650,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,9 +670,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,7 +1228,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1547,10 +1559,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1592,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1598,16 +1610,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1620,14 +1632,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1653,18 +1665,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3770,17 +3782,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3813,12 +3825,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K70"/>
+  <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,14 +3860,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3866,16 +3878,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3888,14 +3900,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3921,18 +3935,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3989,7 +4003,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>31.950000000000003</v>
+        <v>23.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4641,7 +4655,9 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="12"/>
       <c r="E39" s="9"/>
@@ -4650,30 +4666,41 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12">
+        <v>3</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
       <c r="E40" s="9"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="12"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="12">
+        <v>3</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
       <c r="E41" s="9"/>
@@ -4682,10 +4709,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="12">
+        <v>2</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
@@ -4881,19 +4912,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
-      <c r="B54" s="13"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="16"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
@@ -4906,10 +4937,10 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="16"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
@@ -5066,26 +5097,26 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="16"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="12"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
@@ -5137,33 +5168,49 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="16"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>05/24-26/2023</t>
+  </si>
+  <si>
+    <t>06/6-8/2023</t>
+  </si>
+  <si>
+    <t>6/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1560,9 +1566,9 @@
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,9 +3834,9 @@
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,7 +4009,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.950000000000003</v>
+        <v>18.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4720,7 +4726,9 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
       <c r="E42" s="9"/>
@@ -4729,14 +4737,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12">
+        <v>3</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
       <c r="E43" s="9"/>
@@ -4745,10 +4759,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="12">
+        <v>2</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B706E-8F84-4214-9C95-BB1F827E6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,12 +293,18 @@
   </si>
   <si>
     <t>6/15,16/2023</t>
+  </si>
+  <si>
+    <t>7/3,4,5/2023</t>
+  </si>
+  <si>
+    <t>6/20,22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -656,17 +663,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,6 +680,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,7 +1194,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1204,25 +1211,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1234,25 +1241,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1559,34 +1566,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1598,16 +1605,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1616,18 +1623,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1638,16 +1645,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1655,7 +1662,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1668,24 +1675,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1729,7 +1736,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1739,12 +1746,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1762,7 +1769,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1782,7 +1789,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1802,7 +1809,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1822,7 +1829,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1842,7 +1849,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1862,7 +1869,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1882,7 +1889,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1902,7 +1909,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1922,7 +1929,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1942,7 +1949,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1962,7 +1969,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -1982,7 +1989,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -2006,7 +2013,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2024,7 +2031,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2044,7 +2051,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2064,7 +2071,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2084,7 +2091,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2104,7 +2111,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2124,7 +2131,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2144,7 +2151,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2164,7 +2171,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2184,7 +2191,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2204,7 +2211,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2224,7 +2231,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2244,7 +2251,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2268,7 +2275,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2306,7 +2313,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2326,7 +2333,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2346,7 +2353,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2366,7 +2373,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2386,7 +2393,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2406,7 +2413,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2446,7 +2453,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2492,7 +2499,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2512,7 +2519,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2558,7 +2565,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2576,7 +2583,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2596,7 +2603,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2616,7 +2623,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2636,7 +2643,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2682,7 +2689,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2702,7 +2709,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2722,7 +2729,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2742,7 +2749,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2762,7 +2769,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2782,7 +2789,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2802,7 +2809,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2850,7 +2857,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2870,7 +2877,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2891,7 +2898,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2912,7 +2919,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2933,7 +2940,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2954,7 +2961,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2975,7 +2982,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -2996,7 +3003,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3017,7 +3024,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3037,7 +3044,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3058,7 +3065,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3078,7 +3085,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3104,7 +3111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3122,7 +3129,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3142,7 +3149,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3162,7 +3169,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3182,7 +3189,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3202,25 +3209,27 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="9"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3238,7 +3247,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3256,7 +3265,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3274,7 +3283,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3292,7 +3301,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3310,7 +3319,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3328,7 +3337,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3346,7 +3355,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3364,7 +3373,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3382,7 +3391,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3400,7 +3409,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3418,7 +3427,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3434,7 +3443,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3450,7 +3459,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3466,7 +3475,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3482,7 +3491,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3498,7 +3507,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3514,7 +3523,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3530,7 +3539,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3546,7 +3555,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3562,7 +3571,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3578,7 +3587,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3594,7 +3603,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3610,7 +3619,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3626,7 +3635,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3642,7 +3651,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3658,7 +3667,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3674,7 +3683,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3690,7 +3699,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3706,7 +3715,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3722,7 +3731,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3738,7 +3747,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3754,7 +3763,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3770,7 +3779,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3788,23 +3797,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3827,34 +3836,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3866,16 +3875,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3884,18 +3893,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3906,18 +3915,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3925,7 +3934,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3938,24 +3947,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3999,7 +4008,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.09</v>
+        <v>42.09</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4009,12 +4018,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.950000000000003</v>
+        <v>16.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4041,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4118,7 +4127,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4140,7 +4149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4186,7 +4195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4210,7 +4219,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4232,7 +4241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4252,7 +4261,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4270,7 +4279,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4364,7 +4373,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4434,7 +4443,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4457,7 +4466,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4479,7 +4488,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4497,7 +4506,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4521,7 +4530,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4567,7 +4576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4591,7 +4600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4613,7 +4622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>45047</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>64</v>
@@ -4659,7 +4668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="12" t="s">
         <v>44</v>
@@ -4681,7 +4690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>44</v>
@@ -4700,7 +4709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>45078</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>44</v>
@@ -4746,7 +4755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>64</v>
@@ -4768,11 +4777,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14" t="str">
@@ -4782,11 +4795,15 @@
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="12"/>
       <c r="E45" s="9"/>
@@ -4795,12 +4812,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12">
+        <v>2</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4816,7 +4837,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -4832,7 +4853,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -4848,7 +4869,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -4864,7 +4885,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4880,7 +4901,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4896,7 +4917,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4912,7 +4933,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4928,7 +4949,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -4944,7 +4965,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4960,7 +4981,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4976,7 +4997,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4992,7 +5013,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5008,7 +5029,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5024,7 +5045,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5040,7 +5061,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5056,7 +5077,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5072,7 +5093,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5088,7 +5109,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5104,7 +5125,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5120,7 +5141,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5136,7 +5157,7 @@
       <c r="J66" s="13"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5152,7 +5173,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5168,7 +5189,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5184,7 +5205,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5200,7 +5221,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5218,23 +5239,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5257,28 +5278,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5291,7 +5312,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5320,7 +5341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5344,17 +5365,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5375,7 +5396,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5402,7 +5423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5454,7 +5475,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5480,7 +5501,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5506,7 +5527,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5558,7 +5579,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5584,7 +5605,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5604,7 +5625,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5624,7 +5645,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5644,7 +5665,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5665,7 +5686,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5686,7 +5707,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5707,7 +5728,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5728,7 +5749,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5770,7 +5791,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5791,7 +5812,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5812,7 +5833,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5833,7 +5854,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5854,7 +5875,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5875,7 +5896,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5896,7 +5917,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5938,7 +5959,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -5959,7 +5980,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -5980,7 +6001,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -6001,7 +6022,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -6043,7 +6064,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -6064,7 +6085,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -6073,7 +6094,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -6082,7 +6103,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6091,7 +6112,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6100,7 +6121,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6109,7 +6130,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6118,7 +6139,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6127,7 +6148,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6136,7 +6157,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6145,7 +6166,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6154,7 +6175,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6163,7 +6184,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6172,7 +6193,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6181,7 +6202,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6190,7 +6211,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6199,7 +6220,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6208,7 +6229,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6217,7 +6238,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6226,7 +6247,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6235,7 +6256,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6244,7 +6265,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6253,7 +6274,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6262,7 +6283,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6271,7 +6292,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6280,7 +6301,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6289,7 +6310,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6298,7 +6319,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6307,7 +6328,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6316,7 +6337,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6325,7 +6346,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B706E-8F84-4214-9C95-BB1F827E6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,16 +294,19 @@
     <t>6/15,16/2023</t>
   </si>
   <si>
-    <t>7/3,4,5/2023</t>
-  </si>
-  <si>
     <t>6/20,22/2023</t>
+  </si>
+  <si>
+    <t>7/3,5,7/2023</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1194,7 +1196,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1211,25 +1213,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1241,25 +1243,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1566,34 +1568,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1616,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1634,7 +1636,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1656,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1662,7 +1664,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1675,7 +1677,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="54" t="s">
@@ -1692,7 +1694,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1751,7 +1753,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1769,7 +1771,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1789,7 +1791,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1809,7 +1811,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1829,7 +1831,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1869,7 +1871,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1889,7 +1891,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1909,7 +1911,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1929,7 +1931,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1949,7 +1951,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1969,7 +1971,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2033,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2051,7 +2053,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2071,7 +2073,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2111,7 +2113,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2131,7 +2133,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2151,7 +2153,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2171,7 +2173,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2191,7 +2193,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2211,7 +2213,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2231,7 +2233,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2251,7 +2253,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2275,7 +2277,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2295,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2313,7 +2315,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2333,7 +2335,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2353,7 +2355,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2393,7 +2395,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2413,7 +2415,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2433,7 +2435,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2453,7 +2455,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2499,7 +2501,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2519,7 +2521,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2565,7 +2567,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2603,7 +2605,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2623,7 +2625,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2643,7 +2645,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2689,7 +2691,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2709,7 +2711,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2729,7 +2731,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2749,7 +2751,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2769,7 +2771,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2789,7 +2791,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2809,7 +2811,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2859,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2898,7 +2900,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2919,7 +2921,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2940,7 +2942,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2961,7 +2963,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2982,7 +2984,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3003,7 +3005,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3024,7 +3026,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3044,7 +3046,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3065,7 +3067,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3085,7 +3087,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3129,7 +3131,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3149,7 +3151,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3169,7 +3171,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3189,7 +3191,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3209,7 +3211,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3229,7 +3231,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3247,7 +3249,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3283,7 +3285,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3319,7 +3321,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3337,7 +3339,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3355,7 +3357,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3391,7 +3393,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3409,7 +3411,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3427,7 +3429,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3443,7 +3445,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3459,7 +3461,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3475,7 +3477,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3491,7 +3493,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3507,7 +3509,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3523,7 +3525,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3539,7 +3541,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3555,7 +3557,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3571,7 +3573,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3587,7 +3589,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3603,7 +3605,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3619,7 +3621,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3635,7 +3637,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3651,7 +3653,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3667,7 +3669,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3683,7 +3685,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3699,7 +3701,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3715,7 +3717,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3731,7 +3733,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3747,7 +3749,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3763,7 +3765,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3779,7 +3781,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3810,10 +3812,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3836,34 +3838,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K71"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3884,7 +3886,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3906,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3934,7 +3936,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3947,7 +3949,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="54" t="s">
@@ -3964,7 +3966,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4018,12 +4020,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.950000000000003</v>
+        <v>14.950000000000003</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4087,7 +4089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4195,7 +4197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4241,7 +4243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4261,7 +4263,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4375,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4443,7 +4445,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4466,7 +4468,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4488,7 +4490,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4508,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4576,7 +4578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4622,7 +4624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45047</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>64</v>
@@ -4668,7 +4670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12" t="s">
         <v>44</v>
@@ -4690,7 +4692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>44</v>
@@ -4709,7 +4711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>45078</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>44</v>
@@ -4755,7 +4757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>64</v>
@@ -4777,7 +4779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12" t="s">
         <v>67</v>
@@ -4796,10 +4798,10 @@
       <c r="I44" s="9"/>
       <c r="J44" s="12"/>
       <c r="K44" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>64</v>
@@ -4818,27 +4820,35 @@
       <c r="I45" s="9"/>
       <c r="J45" s="12"/>
       <c r="K45" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="41">
+        <v>2</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="K46" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>45108</v>
+      </c>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
       <c r="D47" s="12"/>
@@ -4853,7 +4863,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -4869,7 +4879,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -4885,7 +4895,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4901,7 +4911,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4917,7 +4927,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4933,7 +4943,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4949,7 +4959,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -4965,23 +4975,23 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4992,12 +5002,12 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H56" s="13"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -5013,7 +5023,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5029,7 +5039,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5045,7 +5055,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5061,7 +5071,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5077,7 +5087,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5093,7 +5103,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5109,7 +5119,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5125,7 +5135,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5141,7 +5151,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5152,28 +5162,28 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H66" s="12"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="12"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="13"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5189,7 +5199,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5205,7 +5215,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5221,21 +5231,37 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="13"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="16"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5252,10 +5278,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5278,28 +5304,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5312,7 +5338,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5341,7 +5367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5365,17 +5391,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5396,7 +5422,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5423,7 +5449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5449,7 +5475,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5475,7 +5501,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5501,7 +5527,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5527,7 +5553,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5553,7 +5579,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5579,7 +5605,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5605,7 +5631,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5625,7 +5651,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5645,7 +5671,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5665,7 +5691,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5686,7 +5712,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5707,7 +5733,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5728,7 +5754,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5749,7 +5775,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5770,7 +5796,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5791,7 +5817,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5812,7 +5838,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5833,7 +5859,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5854,7 +5880,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5875,7 +5901,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5896,7 +5922,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5917,7 +5943,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5938,7 +5964,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5959,7 +5985,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -5980,7 +6006,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -6001,7 +6027,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -6022,7 +6048,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -6043,7 +6069,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -6064,7 +6090,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -6085,7 +6111,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -6094,7 +6120,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -6103,7 +6129,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6112,7 +6138,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6121,7 +6147,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6130,7 +6156,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6139,7 +6165,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6148,7 +6174,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6157,7 +6183,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6166,7 +6192,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6175,7 +6201,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6184,7 +6210,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6193,7 +6219,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6202,7 +6228,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6211,7 +6237,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6220,7 +6246,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6229,7 +6255,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6238,7 +6264,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6247,7 +6273,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6256,7 +6282,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6265,7 +6291,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6274,7 +6300,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6283,7 +6309,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6292,7 +6318,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6301,7 +6327,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6310,7 +6336,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6319,7 +6345,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6328,7 +6354,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6337,7 +6363,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6346,7 +6372,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895C4DB5-FB03-4A1B-81F2-E4A00589E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,12 +302,21 @@
   </si>
   <si>
     <t>6/29,30/2023</t>
+  </si>
+  <si>
+    <t>7/10,12,13/2023</t>
+  </si>
+  <si>
+    <t>7/20,21/2023</t>
+  </si>
+  <si>
+    <t>7/25-27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -665,14 +675,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -682,9 +695,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,7 +1206,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1213,25 +1223,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1243,25 +1253,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1568,34 +1578,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1607,16 +1617,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1625,18 +1635,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1647,16 +1657,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1664,7 +1674,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1677,24 +1687,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1738,7 +1748,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1748,12 +1758,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1771,7 +1781,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1791,7 +1801,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1811,7 +1821,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1831,7 +1841,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1851,7 +1861,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1871,7 +1881,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1891,7 +1901,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1911,7 +1921,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1931,7 +1941,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1951,7 +1961,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1971,7 +1981,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -1991,7 +2001,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -2015,7 +2025,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2033,7 +2043,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2053,7 +2063,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2073,7 +2083,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2093,7 +2103,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2133,7 +2143,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2153,7 +2163,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2173,7 +2183,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2193,7 +2203,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2213,7 +2223,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2233,7 +2243,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2253,7 +2263,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2277,7 +2287,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2305,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2315,7 +2325,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2335,7 +2345,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2355,7 +2365,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2375,7 +2385,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2395,7 +2405,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2415,7 +2425,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2435,7 +2445,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2481,7 +2491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2501,7 +2511,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2521,7 +2531,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2567,7 +2577,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2585,7 +2595,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2605,7 +2615,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2625,7 +2635,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2645,7 +2655,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2691,7 +2701,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2711,7 +2721,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2731,7 +2741,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2751,7 +2761,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2771,7 +2781,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2791,7 +2801,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2811,7 +2821,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2869,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2879,7 +2889,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2900,7 +2910,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2921,7 +2931,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2942,7 +2952,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2963,7 +2973,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2984,7 +2994,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3005,7 +3015,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3026,7 +3036,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3046,7 +3056,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3067,7 +3077,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3087,7 +3097,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3131,7 +3141,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3151,7 +3161,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3171,7 +3181,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3191,7 +3201,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3211,7 +3221,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3231,43 +3241,47 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82" s="9"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="12"/>
       <c r="E83" s="9"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3285,7 +3299,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3303,7 +3317,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3321,7 +3335,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3339,7 +3353,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3357,7 +3371,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3375,7 +3389,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3393,7 +3407,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3411,7 +3425,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3429,7 +3443,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3445,7 +3459,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3461,7 +3475,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3477,7 +3491,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3493,7 +3507,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3509,7 +3523,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3525,7 +3539,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3541,7 +3555,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3557,7 +3571,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3573,7 +3587,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3589,7 +3603,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3605,7 +3619,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3621,7 +3635,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3637,7 +3651,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3653,7 +3667,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3669,7 +3683,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3685,7 +3699,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3701,7 +3715,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3717,7 +3731,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3733,7 +3747,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3749,7 +3763,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3765,7 +3779,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3781,7 +3795,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3799,23 +3813,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3838,34 +3852,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3877,16 +3891,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3895,18 +3909,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>38580</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3917,18 +3931,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3936,7 +3950,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3949,24 +3963,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4020,12 +4034,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.950000000000003</v>
+        <v>6.9500000000000028</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4043,7 +4057,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4065,7 +4079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4089,7 +4103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4129,7 +4143,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4151,7 +4165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4175,7 +4189,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4197,7 +4211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4243,7 +4257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4263,7 +4277,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4281,7 +4295,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4305,7 +4319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4353,7 +4367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4375,7 +4389,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4399,7 +4413,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4423,7 +4437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4445,7 +4459,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4468,7 +4482,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4490,7 +4504,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4508,7 +4522,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4532,7 +4546,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4578,7 +4592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4602,7 +4616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4624,7 +4638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>45047</v>
       </c>
@@ -4648,7 +4662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>64</v>
@@ -4670,7 +4684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="12" t="s">
         <v>44</v>
@@ -4692,7 +4706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>44</v>
@@ -4711,7 +4725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>45078</v>
       </c>
@@ -4735,7 +4749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>44</v>
@@ -4757,7 +4771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>64</v>
@@ -4779,7 +4793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="12" t="s">
         <v>67</v>
@@ -4801,7 +4815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>64</v>
@@ -4823,7 +4837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>64</v>
@@ -4845,11 +4859,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>45108</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="12"/>
       <c r="E47" s="9"/>
@@ -4858,14 +4874,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="12">
+        <v>3</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="12"/>
+      <c r="K47" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>45135</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="12"/>
       <c r="E48" s="9"/>
@@ -4874,14 +4898,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="12">
+        <v>2</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="12"/>
+      <c r="K48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
+        <v>45138</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="12"/>
       <c r="E49" s="9"/>
@@ -4890,12 +4922,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="12">
+        <v>3</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4911,7 +4947,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4927,7 +4963,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4943,7 +4979,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4959,7 +4995,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -4975,7 +5011,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -4991,7 +5027,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -5007,7 +5043,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -5023,7 +5059,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5039,7 +5075,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5055,7 +5091,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5071,7 +5107,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5087,7 +5123,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5103,7 +5139,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5119,7 +5155,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5135,7 +5171,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5151,7 +5187,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5167,7 +5203,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -5183,7 +5219,7 @@
       <c r="J67" s="13"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5199,7 +5235,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5215,7 +5251,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5231,7 +5267,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -5247,7 +5283,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5265,23 +5301,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5304,28 +5340,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5338,7 +5374,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5367,7 +5403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5391,17 +5427,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5422,7 +5458,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5449,7 +5485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5475,7 +5511,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5501,7 +5537,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5527,7 +5563,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5553,7 +5589,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5579,7 +5615,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5605,7 +5641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5631,7 +5667,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5651,7 +5687,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5671,7 +5707,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5691,7 +5727,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5712,7 +5748,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5733,7 +5769,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5754,7 +5790,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5775,7 +5811,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5796,7 +5832,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5817,7 +5853,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5838,7 +5874,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5859,7 +5895,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5880,7 +5916,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5901,7 +5937,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5922,7 +5958,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -5985,7 +6021,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -6006,7 +6042,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -6027,7 +6063,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -6048,7 +6084,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -6069,7 +6105,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -6090,7 +6126,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -6111,7 +6147,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -6120,7 +6156,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -6129,7 +6165,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6138,7 +6174,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6147,7 +6183,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6156,7 +6192,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6165,7 +6201,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6174,7 +6210,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6183,7 +6219,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6192,7 +6228,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6201,7 +6237,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6210,7 +6246,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6219,7 +6255,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6228,7 +6264,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6237,7 +6273,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6246,7 +6282,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6255,7 +6291,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6264,7 +6300,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6273,7 +6309,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6282,7 +6318,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6291,7 +6327,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6300,7 +6336,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6309,7 +6345,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6318,7 +6354,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6327,7 +6363,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6336,7 +6372,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6345,7 +6381,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6354,7 +6390,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6363,7 +6399,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6372,7 +6408,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895C4DB5-FB03-4A1B-81F2-E4A00589E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE BALANCE" sheetId="5" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE BALANCE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -311,12 +310,15 @@
   </si>
   <si>
     <t>7/25-27/2023</t>
+  </si>
+  <si>
+    <t>8/1,3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -675,17 +677,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -695,6 +694,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,7 +1208,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1223,25 +1225,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1253,25 +1255,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1578,34 +1580,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1617,16 +1619,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1635,18 +1637,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1657,16 +1659,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1674,7 +1676,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1687,24 +1689,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1763,7 +1765,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1783,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43131</v>
       </c>
@@ -1801,7 +1803,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43159</v>
       </c>
@@ -1821,7 +1823,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43190</v>
       </c>
@@ -1841,7 +1843,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43220</v>
       </c>
@@ -1861,7 +1863,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43251</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43281</v>
       </c>
@@ -1901,7 +1903,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43312</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43343</v>
       </c>
@@ -1941,7 +1943,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43373</v>
       </c>
@@ -1961,7 +1963,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43404</v>
       </c>
@@ -1981,7 +1983,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43434</v>
       </c>
@@ -2001,7 +2003,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43465</v>
       </c>
@@ -2025,7 +2027,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
@@ -2043,7 +2045,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43496</v>
       </c>
@@ -2063,7 +2065,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43524</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43555</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43585</v>
       </c>
@@ -2123,7 +2125,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43616</v>
       </c>
@@ -2143,7 +2145,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43646</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43677</v>
       </c>
@@ -2183,7 +2185,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43708</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43738</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43769</v>
       </c>
@@ -2243,7 +2245,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43799</v>
       </c>
@@ -2263,7 +2265,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43830</v>
       </c>
@@ -2287,7 +2289,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>54</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2325,7 +2327,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43890</v>
       </c>
@@ -2345,7 +2347,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43921</v>
       </c>
@@ -2365,7 +2367,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43951</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43982</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44012</v>
       </c>
@@ -2425,7 +2427,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44043</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44074</v>
       </c>
@@ -2465,7 +2467,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44104</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44135</v>
       </c>
@@ -2511,7 +2513,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44165</v>
       </c>
@@ -2531,7 +2533,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44196</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>62</v>
@@ -2577,7 +2579,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>63</v>
       </c>
@@ -2595,7 +2597,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44227</v>
       </c>
@@ -2615,7 +2617,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44255</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44286</v>
       </c>
@@ -2655,7 +2657,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44316</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44347</v>
       </c>
@@ -2701,7 +2703,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44377</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44408</v>
       </c>
@@ -2741,7 +2743,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44439</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44469</v>
       </c>
@@ -2781,7 +2783,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44500</v>
       </c>
@@ -2801,7 +2803,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44530</v>
       </c>
@@ -2821,7 +2823,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44561</v>
       </c>
@@ -2847,7 +2849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>43</v>
       </c>
@@ -2869,7 +2871,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2889,7 +2891,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>44593</v>
@@ -2910,7 +2912,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <f t="shared" ref="A66:A71" si="0">EDATE(A65,1)</f>
         <v>44621</v>
@@ -2931,7 +2933,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -2952,7 +2954,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -2973,7 +2975,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2994,7 +2996,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3015,7 +3017,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3036,7 +3038,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="42"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44820</v>
       </c>
@@ -3056,7 +3058,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44850</v>
@@ -3077,7 +3079,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="42"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>72</v>
       </c>
@@ -3141,7 +3143,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3161,7 +3163,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3181,7 +3183,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3201,7 +3203,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3241,7 +3243,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3261,7 +3263,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3281,7 +3283,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3299,7 +3301,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3317,7 +3319,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3353,7 +3355,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3371,7 +3373,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3389,7 +3391,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3407,7 +3409,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3443,7 +3445,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3459,7 +3461,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3475,7 +3477,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3491,7 +3493,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3507,7 +3509,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3523,7 +3525,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3539,7 +3541,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3555,7 +3557,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3571,7 +3573,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3587,7 +3589,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3603,7 +3605,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3619,7 +3621,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3635,7 +3637,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3651,7 +3653,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3667,7 +3669,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3683,7 +3685,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3699,7 +3701,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3715,7 +3717,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3731,7 +3733,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3747,7 +3749,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3763,7 +3765,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3779,7 +3781,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3795,7 +3797,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3813,23 +3815,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3852,34 +3854,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3891,16 +3893,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3909,18 +3911,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>38580</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3931,18 +3933,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3950,7 +3952,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3963,24 +3965,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4034,12 +4036,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.9500000000000028</v>
+        <v>4.9500000000000028</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>46</v>
       </c>
@@ -4057,7 +4059,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43220</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43312</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43404</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4143,7 +4145,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43831</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44104</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>58</v>
@@ -4211,7 +4213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44196</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>60</v>
@@ -4257,7 +4259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>62</v>
@@ -4277,7 +4279,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -4295,7 +4297,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44286</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44316</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44561</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>43</v>
       </c>
@@ -4389,7 +4391,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>44774</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>44820</v>
       </c>
@@ -4437,7 +4439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -4459,7 +4461,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>44850</v>
@@ -4482,7 +4484,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>70</v>
@@ -4504,7 +4506,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
@@ -4522,7 +4524,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44927</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44958</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
@@ -4592,7 +4594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44986</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>58</v>
@@ -4638,7 +4640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45047</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>64</v>
@@ -4684,7 +4686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12" t="s">
         <v>44</v>
@@ -4706,7 +4708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>44</v>
@@ -4725,7 +4727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>45078</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>44</v>
@@ -4771,7 +4773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>64</v>
@@ -4793,7 +4795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12" t="s">
         <v>67</v>
@@ -4815,7 +4817,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>64</v>
@@ -4837,7 +4839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>64</v>
@@ -4859,7 +4861,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45108</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45135</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>45138</v>
       </c>
@@ -4931,9 +4933,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="12"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>45139</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="12"/>
       <c r="E50" s="9"/>
@@ -4942,12 +4948,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12">
+        <v>2</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4963,7 +4973,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4979,7 +4989,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4995,7 +5005,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -5011,7 +5021,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -5027,7 +5037,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -5043,7 +5053,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -5059,7 +5069,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5075,7 +5085,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5091,7 +5101,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5107,7 +5117,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5123,7 +5133,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5139,7 +5149,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5155,7 +5165,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5171,7 +5181,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5187,7 +5197,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5203,7 +5213,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -5219,7 +5229,7 @@
       <c r="J67" s="13"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5235,7 +5245,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5251,7 +5261,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5267,7 +5277,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="12"/>
       <c r="C71" s="14"/>
@@ -5283,7 +5293,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5301,23 +5311,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5340,28 +5350,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -5374,7 +5384,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>60.09</v>
       </c>
@@ -5427,17 +5437,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -5458,7 +5468,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -5537,7 +5547,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -5615,7 +5625,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -5641,7 +5651,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -5687,7 +5697,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -5769,7 +5779,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -5832,7 +5842,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -5853,7 +5863,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -5916,7 +5926,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -5937,7 +5947,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -5979,7 +5989,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -6021,7 +6031,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -6084,7 +6094,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -6105,7 +6115,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -6156,7 +6166,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -6165,7 +6175,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -6174,7 +6184,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -6183,7 +6193,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -6192,7 +6202,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -6201,7 +6211,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -6210,7 +6220,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -6219,7 +6229,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -6228,7 +6238,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -6237,7 +6247,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -6246,7 +6256,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -6255,7 +6265,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -6264,7 +6274,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -6273,7 +6283,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -6282,7 +6292,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -6291,7 +6301,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -6300,7 +6310,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -6309,7 +6319,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -6318,7 +6328,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -6327,7 +6337,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -6336,7 +6346,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -6345,7 +6355,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -6354,7 +6364,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -6363,7 +6373,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -6372,7 +6382,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -6381,7 +6391,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -6390,7 +6400,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -6399,7 +6409,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -6408,7 +6418,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -313,6 +313,27 @@
   </si>
   <si>
     <t>8/1,3/2023</t>
+  </si>
+  <si>
+    <t>8/16,17/2023</t>
+  </si>
+  <si>
+    <t>8/29-31/2023</t>
+  </si>
+  <si>
+    <t>9/12,13/2023</t>
+  </si>
+  <si>
+    <t>9/20,21/2023</t>
+  </si>
+  <si>
+    <t>9/26-28/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>10/2-4, 10-12/2023</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1610,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1771,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1760,7 +1781,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3288,13 +3309,15 @@
         <v>45139</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="12"/>
       <c r="E84" s="9"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="9"/>
@@ -3306,13 +3329,15 @@
         <v>45170</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="12"/>
       <c r="E85" s="9"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="9"/>
@@ -3863,7 +3888,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,7 +4051,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.09</v>
+        <v>28.090000000000003</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4036,7 +4061,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.9500000000000028</v>
+        <v>0.95000000000000284</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4959,7 +4984,9 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="12"/>
       <c r="E51" s="9"/>
@@ -4968,16 +4995,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="12">
+        <v>2</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="14"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>3</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12"/>
       <c r="G52" s="14" t="str">
@@ -4987,11 +5022,17 @@
       <c r="H52" s="12"/>
       <c r="I52" s="9"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="21" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
       <c r="E53" s="9"/>
@@ -5000,16 +5041,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="12">
+        <v>2</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="12">
+        <v>2</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="12"/>
       <c r="G54" s="14" t="str">
@@ -5019,13 +5068,19 @@
       <c r="H54" s="12"/>
       <c r="I54" s="9"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="12">
+        <v>3</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="12"/>
       <c r="G55" s="14" t="str">
@@ -5035,13 +5090,21 @@
       <c r="H55" s="12"/>
       <c r="I55" s="9"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="24">
+        <v>45200</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="13">
+        <v>6</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14" t="str">
@@ -5051,7 +5114,9 @@
       <c r="H56" s="13"/>
       <c r="I56" s="10"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="16"/>
+      <c r="K56" s="16" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
